--- a/INM431-MachineLearning/labs/week01/CorrelationCovariance.xlsx
+++ b/INM431-MachineLearning/labs/week01/CorrelationCovariance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nsq024vs\u8\aczd097\MyDocs\git\msc-data-science\INM431-MachineLearning\labs\week01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEA0DA-52EF-4BC3-BB0D-E5D124286258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C7CCD-0256-4DAB-B1FC-5BECB2FD1D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1DB5F42F-C9CE-4C8D-97D7-AF2C37467EC1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Economic Growth % (xi)</t>
   </si>
@@ -61,22 +61,25 @@
     <t>Covariance</t>
   </si>
   <si>
-    <t>Sx</t>
-  </si>
-  <si>
     <t>(x - xbar)^2</t>
   </si>
   <si>
     <t>(y - ybar)^2</t>
   </si>
   <si>
-    <t>Sy</t>
-  </si>
-  <si>
     <t>SQRT(SUM (xi - xbar)^2 / N-1)</t>
   </si>
   <si>
     <t>CORRCOEF(x,y)</t>
+  </si>
+  <si>
+    <t>Sx (excel)</t>
+  </si>
+  <si>
+    <t>Sy (excel)</t>
+  </si>
+  <si>
+    <t>CorrCoef (excel)</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825E6E55-F42E-4B7D-99D8-20FDE1960A4B}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,14 +460,16 @@
     <col min="13" max="13" width="26.42578125" customWidth="1"/>
     <col min="14" max="14" width="30.85546875" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,25 +501,28 @@
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2.1</v>
       </c>
@@ -575,8 +583,12 @@
         <f>STDEV(B4:B7)</f>
         <v>2.5819888974716112</v>
       </c>
+      <c r="Q4" s="2">
+        <f>CORREL(A4:A7,B4:B7)</f>
+        <v>0.66257388220302882</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2.5</v>
       </c>
@@ -596,7 +608,7 @@
         <v>-0.54999999999999982</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K7" si="1">POWER(C5, 2)</f>
@@ -607,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -639,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3.6</v>
       </c>
@@ -667,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>SUM(E4:E7)</f>
         <v>4.5999999999999996</v>
@@ -681,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
